--- a/public/import/studentImport.xlsx
+++ b/public/import/studentImport.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nama</t>
   </si>
   <si>
     <t>nis</t>
+  </si>
+  <si>
+    <t>nisn</t>
   </si>
   <si>
     <t>phone</t>
@@ -30,18 +33,28 @@
   <si>
     <t>jenis_kelamin</t>
   </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KET:
+ISLAM = I
+KRISTEN PROTESTAN = KP
+KRISTEN = K
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,10 +63,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Nimbus Roman No9 L"/>
+      <name val="Calibri Light"/>
       <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -70,10 +99,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,67 +132,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,9 +145,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,31 +220,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +230,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -221,55 +248,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,84 +410,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,30 +417,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,6 +427,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,22 +469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,6 +501,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -466,37 +523,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,157 +532,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -976,21 +1012,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F6" sqref="A2 F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="10.8" customWidth="1"/>
-    <col min="3" max="3" width="14.9" customWidth="1"/>
-    <col min="4" max="4" width="6.4" customWidth="1"/>
-    <col min="5" max="5" width="17.1" customWidth="1"/>
+    <col min="2" max="3" width="10.8" customWidth="1"/>
+    <col min="4" max="4" width="14.9" customWidth="1"/>
+    <col min="5" max="5" width="6.3" customWidth="1"/>
+    <col min="6" max="7" width="17.1" customWidth="1"/>
+    <col min="8" max="8" width="14.2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,11 +1040,74 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="8:11">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="8:11">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="8:11">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="8:11">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="8:11">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="8:11">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="8:11">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="8:11">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:K9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/public/import/studentImport.xlsx
+++ b/public/import/studentImport.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -376,15 +376,15 @@
     <col min="8" max="8" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2">
+    <row r="1" spans="1:7" ht="15.6">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
